--- a/doc/Plan IQArena.xlsx
+++ b/doc/Plan IQArena.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18975" windowHeight="7365"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="11760" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Hours</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Xây dựng cấu trúc file và thư mục, cấu trúc lớp cho hệ thống. Phân chia các module cho chương trình</t>
+  </si>
+  <si>
+    <t>finish</t>
   </si>
 </sst>
 </file>
@@ -406,9 +409,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,51 +478,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -534,6 +495,48 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -833,259 +836,272 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="25" customWidth="1"/>
-    <col min="7" max="8" width="16.28515625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="58.5703125" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="24" customWidth="1"/>
+    <col min="7" max="8" width="16.28515625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="58.5703125" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="29" customFormat="1" ht="20.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" s="28" customFormat="1" ht="20.25">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:9" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="28.5">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="5"/>
+      <c r="D3" s="8">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10">
-        <v>4</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="42.75">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="42.75">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="9">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" s="30" customFormat="1">
-      <c r="A7" s="30" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" s="29" customFormat="1">
+      <c r="A7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="10">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="10">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" s="33" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" s="42" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="33" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="11" spans="1:9" s="42" customFormat="1" ht="23.25" customHeight="1"/>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>7</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="28.5">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>8</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="3"/>
@@ -1095,77 +1111,77 @@
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>8</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="19" customFormat="1" ht="42.75">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="42.75">
+      <c r="A15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="17">
-        <v>4</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="16">
+        <v>4</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" s="27" customFormat="1">
-      <c r="A16" s="27" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" s="26" customFormat="1">
+      <c r="A16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="42.75">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="11">
-        <v>4</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="10">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="3"/>
@@ -1175,57 +1191,57 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>5</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" s="48" customFormat="1" ht="15">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35" t="s">
+    <row r="19" spans="1:8" s="34" customFormat="1" ht="15">
+      <c r="A19" s="49"/>
+      <c r="B19" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="47"/>
-    </row>
-    <row r="20" spans="1:8" s="39" customFormat="1" ht="15">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8" s="46" customFormat="1">
-      <c r="A21" s="44" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" s="32" customFormat="1" ht="15">
+      <c r="A20" s="50"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" s="40" customFormat="1">
+      <c r="A21" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/doc/Plan IQArena.xlsx
+++ b/doc/Plan IQArena.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="11760" windowHeight="5490"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>Hours</t>
   </si>
@@ -191,19 +191,28 @@
   </si>
   <si>
     <t>finish</t>
+  </si>
+  <si>
+    <t>finish (mới làm các response cơ bản, các response về chat, market, item, graft sẽ bổ xung sau này)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -398,146 +407,146 @@
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,6 +554,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -623,6 +637,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -657,6 +672,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -832,17 +848,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="21" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" style="22" customWidth="1"/>
@@ -855,7 +871,7 @@
     <col min="10" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:9" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
@@ -884,7 +900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:9" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>34</v>
       </c>
@@ -897,7 +913,7 @@
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="28.5">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -922,11 +938,11 @@
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -951,11 +967,11 @@
       <c r="H4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="42.75">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -974,10 +990,17 @@
       <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="42.75">
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -999,7 +1022,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:9" s="29" customFormat="1">
+    <row r="7" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>24</v>
       </c>
@@ -1013,7 +1036,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1">
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1035,7 +1058,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1">
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1057,13 +1080,13 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="42" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:9" s="42" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="42" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="31.5" customHeight="1">
+    <row r="11" spans="1:9" s="42" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -1085,7 +1108,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="28.5">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1107,7 +1130,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="42.75">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1129,7 +1152,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="42.75">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>49</v>
       </c>
@@ -1151,7 +1174,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:9" s="26" customFormat="1">
+    <row r="16" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1188,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="42.75">
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1187,7 +1210,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="28.5">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1209,7 +1232,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" s="34" customFormat="1" ht="15">
+    <row r="19" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="43" t="s">
         <v>54</v>
@@ -1221,7 +1244,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" s="32" customFormat="1" ht="15">
+    <row r="20" spans="1:8" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
       <c r="B20" s="46"/>
       <c r="C20" s="47"/>
@@ -1231,7 +1254,7 @@
       <c r="G20" s="48"/>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" s="40" customFormat="1">
+    <row r="21" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
         <v>55</v>
       </c>
@@ -1258,24 +1281,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
